--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16275" windowHeight="2685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Merchant" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -79,20 +80,32 @@
   </si>
   <si>
     <t>Test case pass</t>
+  </si>
+  <si>
+    <t>vickydadannavar@gmail.com</t>
+  </si>
+  <si>
+    <t>krpppp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -130,18 +143,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -155,8 +166,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -244,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,7 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,114 +472,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:12" ht="330">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>1500</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -579,24 +596,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>9740792108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
